--- a/steeingAngle.xlsx
+++ b/steeingAngle.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\MATLAB\Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E72764-0865-4724-9CDF-96C92C33062C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B723DFCF-B38B-45A7-AD52-0C645F36D3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{9F246FAD-88A0-4DED-91A0-770923002F42}"/>
+    <workbookView xWindow="-260" yWindow="0" windowWidth="8890" windowHeight="12090" xr2:uid="{9F246FAD-88A0-4DED-91A0-770923002F42}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>彎道一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>車手三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車手四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,15 +423,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF2B491-9B88-4550-8465-34400692F983}">
-  <dimension ref="A1:W27"/>
+  <sheetPr codeName="工作表1"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -456,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
@@ -465,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -474,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V1" t="s">
         <v>0</v>
@@ -482,8 +499,26 @@
       <c r="W1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="Y1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,8 +540,52 @@
       <c r="K2">
         <v>3261</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N2">
+        <v>3803</v>
+      </c>
+      <c r="O2">
+        <v>3861</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>B2+1697350698.35</f>
+        <v>1697352168.3499999</v>
+      </c>
+      <c r="S2">
+        <f>C2+1697350698.35</f>
+        <v>1697352205.3499999</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <f>F2+1697350698.35</f>
+        <v>1697352993.4499998</v>
+      </c>
+      <c r="W2">
+        <f>G2+1697350698.35</f>
+        <v>1697353035.8499999</v>
+      </c>
+      <c r="Z2">
+        <f>J2+1697350698.35</f>
+        <v>1697353925.1499999</v>
+      </c>
+      <c r="AA2">
+        <f>K2+1697350698.35</f>
+        <v>1697353959.3499999</v>
+      </c>
+      <c r="AD2">
+        <f>N2+1697350698.35</f>
+        <v>1697354501.3499999</v>
+      </c>
+      <c r="AE2">
+        <f>O2+1697350698.35</f>
+        <v>1697354559.3499999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,8 +607,52 @@
       <c r="K3">
         <v>3325</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N3">
+        <v>3915</v>
+      </c>
+      <c r="O3">
+        <v>3963</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R11" si="0">B3+1697350698.35</f>
+        <v>1697352243.9499998</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="1">C3+1697350698.35</f>
+        <v>1697352278.9499998</v>
+      </c>
+      <c r="T3">
+        <v>762</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V12" si="2">F3+1697350698.35</f>
+        <v>1697353076.4499998</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W11" si="3">G3+1697350698.35</f>
+        <v>1697353015.75</v>
+      </c>
+      <c r="Z3">
+        <f>J3+1697350698.35</f>
+        <v>1697353991.3499999</v>
+      </c>
+      <c r="AA3">
+        <f>K3+1697350698.35</f>
+        <v>1697354023.3499999</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD6" si="4">N3+1697350698.35</f>
+        <v>1697354613.3499999</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE5" si="5">O3+1697350698.35</f>
+        <v>1697354661.3499999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -545,8 +668,44 @@
       <c r="G4">
         <v>2496</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N4">
+        <v>4017</v>
+      </c>
+      <c r="O4">
+        <v>4067</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1697352317.55</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>1697352350.1499999</v>
+      </c>
+      <c r="T4">
+        <v>1502</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>1697353155.3499999</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>1697353194.3499999</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="4"/>
+        <v>1697354715.3499999</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="5"/>
+        <v>1697354765.3499999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -562,8 +721,44 @@
       <c r="G5">
         <v>2590.3000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N5">
+        <v>4117</v>
+      </c>
+      <c r="O5">
+        <v>4169</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1697352399.8499999</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>1697352434.6499999</v>
+      </c>
+      <c r="T5">
+        <v>2322</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>1697353238.3499999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>1697353288.6499999</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="4"/>
+        <v>1697354815.3499999</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="5"/>
+        <v>1697354867.3499999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -579,8 +774,37 @@
       <c r="G6">
         <v>2664.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N6">
+        <v>4223</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>1697352470.3499999</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>1697352504.55</v>
+      </c>
+      <c r="T6">
+        <v>3022</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>1697353326.8499999</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>1697353362.55</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="4"/>
+        <v>1697354921.3499999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -596,8 +820,30 @@
       <c r="G7">
         <v>2746.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1697352540.8499999</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>1697352581.55</v>
+      </c>
+      <c r="T7">
+        <v>3732</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>1697353399.9499998</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>1697353444.6499999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -613,8 +859,30 @@
       <c r="G8">
         <v>2824.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>1697352617.55</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>1697352652.6499999</v>
+      </c>
+      <c r="T8">
+        <v>4502</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>1697353484.8499999</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>1697353523.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -630,8 +898,30 @@
       <c r="G9">
         <v>2900.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>1697352692.4499998</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>1697352730.25</v>
+      </c>
+      <c r="T9">
+        <v>5242</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>1697353561.55</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>1697353599.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -647,8 +937,27 @@
       <c r="G10">
         <v>2984.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>1697352764.1499999</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>1697352801.6499999</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>1697353636.25</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>1697353682.8499999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -664,92 +973,41 @@
       <c r="G11">
         <v>3058.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1697352835.4499998</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>1697352871.4499998</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>1697353720.25</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>1697353756.6499999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="F12">
         <v>3099.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>26</v>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>1697353797.8499999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>